--- a/result_table.xlsx
+++ b/result_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>INSTANCE</t>
   </si>
@@ -40,10 +40,7 @@
     <t>CHEAPEST INSERTION</t>
   </si>
   <si>
-    <t>burma14.tsp</t>
-  </si>
-  <si>
-    <t>ulysses22.tsp</t>
+    <t>dsj1000.tsp</t>
   </si>
 </sst>
 </file>
@@ -375,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,81 +438,31 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>3416</v>
+        <v>22980721</v>
       </c>
       <c r="C3">
-        <v>414776</v>
+        <v>1631306335</v>
       </c>
       <c r="D3">
-        <v>0.02798675895275354</v>
+        <v>0.2315704849941757</v>
       </c>
       <c r="E3">
-        <v>3495</v>
+        <v>20312741</v>
       </c>
       <c r="F3">
-        <v>494110</v>
+        <v>2169949913</v>
       </c>
       <c r="G3">
-        <v>0.05176045741799579</v>
+        <v>0.0885895305430616</v>
       </c>
       <c r="H3">
-        <v>4019</v>
+        <v>25209654</v>
       </c>
       <c r="I3">
-        <v>433666</v>
+        <v>4218364915</v>
       </c>
       <c r="J3">
-        <v>0.2094492928077039</v>
-      </c>
-      <c r="K3">
-        <v>3136</v>
-      </c>
-      <c r="L3">
-        <v>916034</v>
-      </c>
-      <c r="M3">
-        <v>-0.05627445079747216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>5779</v>
-      </c>
-      <c r="C4">
-        <v>868033</v>
-      </c>
-      <c r="D4">
-        <v>-0.1759589334093826</v>
-      </c>
-      <c r="E4">
-        <v>7173</v>
-      </c>
-      <c r="F4">
-        <v>1116975</v>
-      </c>
-      <c r="G4">
-        <v>0.02281477256523599</v>
-      </c>
-      <c r="H4">
-        <v>8335</v>
-      </c>
-      <c r="I4">
-        <v>1044324</v>
-      </c>
-      <c r="J4">
-        <v>0.1885070583202624</v>
-      </c>
-      <c r="K4">
-        <v>6530</v>
-      </c>
-      <c r="L4">
-        <v>3221273</v>
-      </c>
-      <c r="M4">
-        <v>-0.06887209468130615</v>
+        <v>0.3510222678964407</v>
       </c>
     </row>
   </sheetData>

--- a/result_table.xlsx
+++ b/result_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>INSTANCE</t>
   </si>
@@ -40,7 +40,43 @@
     <t>CHEAPEST INSERTION</t>
   </si>
   <si>
+    <t>berlin52.tsp</t>
+  </si>
+  <si>
+    <t>burma14.tsp</t>
+  </si>
+  <si>
+    <t>ch150.tsp</t>
+  </si>
+  <si>
+    <t>d493.tsp</t>
+  </si>
+  <si>
     <t>dsj1000.tsp</t>
+  </si>
+  <si>
+    <t>eil51.tsp</t>
+  </si>
+  <si>
+    <t>gr202.tsp</t>
+  </si>
+  <si>
+    <t>gr229.tsp</t>
+  </si>
+  <si>
+    <t>kroA100.tsp</t>
+  </si>
+  <si>
+    <t>kroD100.tsp</t>
+  </si>
+  <si>
+    <t>pcb442.tsp</t>
+  </si>
+  <si>
+    <t>ulysses16.tsp</t>
+  </si>
+  <si>
+    <t>ulysses22.tsp</t>
   </si>
 </sst>
 </file>
@@ -372,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,32 +473,182 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>22980721</v>
-      </c>
       <c r="C3">
-        <v>1631306335</v>
-      </c>
-      <c r="D3">
-        <v>0.2315704849941757</v>
-      </c>
-      <c r="E3">
-        <v>20312741</v>
+        <v>3687741</v>
       </c>
       <c r="F3">
-        <v>2169949913</v>
-      </c>
-      <c r="G3">
-        <v>0.0885895305430616</v>
-      </c>
-      <c r="H3">
-        <v>25209654</v>
+        <v>4663976</v>
       </c>
       <c r="I3">
-        <v>4218364915</v>
-      </c>
-      <c r="J3">
-        <v>0.3510222678964407</v>
+        <v>4458767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>387829</v>
+      </c>
+      <c r="F4">
+        <v>463434</v>
+      </c>
+      <c r="I4">
+        <v>408632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>29034118</v>
+      </c>
+      <c r="F5">
+        <v>36539385</v>
+      </c>
+      <c r="I5">
+        <v>35831578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>291596285</v>
+      </c>
+      <c r="F6">
+        <v>383645640</v>
+      </c>
+      <c r="I6">
+        <v>358377472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1308689692</v>
+      </c>
+      <c r="F7">
+        <v>1898139093</v>
+      </c>
+      <c r="I7">
+        <v>1872025443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>5012627</v>
+      </c>
+      <c r="F8">
+        <v>4807654</v>
+      </c>
+      <c r="I8">
+        <v>3884370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>54839418</v>
+      </c>
+      <c r="F9">
+        <v>66179521</v>
+      </c>
+      <c r="I9">
+        <v>61025736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>68557466</v>
+      </c>
+      <c r="F10">
+        <v>84351220</v>
+      </c>
+      <c r="I10">
+        <v>76135516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>12590144</v>
+      </c>
+      <c r="F11">
+        <v>15434171</v>
+      </c>
+      <c r="I11">
+        <v>14266972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>12320025</v>
+      </c>
+      <c r="F12">
+        <v>15303335</v>
+      </c>
+      <c r="I12">
+        <v>14845681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>250049046</v>
+      </c>
+      <c r="F13">
+        <v>341299158</v>
+      </c>
+      <c r="I13">
+        <v>310624927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>453007</v>
+      </c>
+      <c r="F14">
+        <v>541466</v>
+      </c>
+      <c r="I14">
+        <v>484921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>758886</v>
+      </c>
+      <c r="F15">
+        <v>925068</v>
+      </c>
+      <c r="I15">
+        <v>853912</v>
       </c>
     </row>
   </sheetData>

--- a/result_table.xlsx
+++ b/result_table.xlsx
@@ -1,95 +1,454 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescopenna/Desktop/Advanced Algorithms/lab/TSP/tsp/travellingsalesman/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C834A953-13C6-774E-AA84-E9D5CD5C29B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
-  <si>
-    <t>INSTANCE</t>
-  </si>
-  <si>
-    <t>NEAREST NEIGHBOR</t>
-  </si>
-  <si>
-    <t>SOLUTION</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>RANDOM INSERTION</t>
-  </si>
-  <si>
-    <t>2-APPROXIMATION</t>
-  </si>
-  <si>
-    <t>CHEAPEST INSERTION</t>
-  </si>
-  <si>
-    <t>berlin52.tsp</t>
-  </si>
-  <si>
-    <t>burma14.tsp</t>
-  </si>
-  <si>
-    <t>ch150.tsp</t>
-  </si>
-  <si>
-    <t>d493.tsp</t>
-  </si>
-  <si>
-    <t>dsj1000.tsp</t>
-  </si>
-  <si>
-    <t>eil51.tsp</t>
-  </si>
-  <si>
-    <t>gr202.tsp</t>
-  </si>
-  <si>
-    <t>gr229.tsp</t>
-  </si>
-  <si>
-    <t>kroA100.tsp</t>
-  </si>
-  <si>
-    <t>kroD100.tsp</t>
-  </si>
-  <si>
-    <t>pcb442.tsp</t>
-  </si>
-  <si>
-    <t>ulysses16.tsp</t>
-  </si>
-  <si>
-    <t>ulysses22.tsp</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
+  <si>
+    <t>INSTANCE </t>
+  </si>
+  <si>
+    <t>NEAREST NEIGHBOR </t>
+  </si>
+  <si>
+    <t>RANDOM INSERTION </t>
+  </si>
+  <si>
+    <t>2-APPROXIMATION </t>
+  </si>
+  <si>
+    <t>BERLIN52.TSP </t>
+  </si>
+  <si>
+    <t>8181 </t>
+  </si>
+  <si>
+    <t>3687741 </t>
+  </si>
+  <si>
+    <t>0.084 </t>
+  </si>
+  <si>
+    <t>7591 </t>
+  </si>
+  <si>
+    <t>4663976 </t>
+  </si>
+  <si>
+    <t>0.006 </t>
+  </si>
+  <si>
+    <t>9550 </t>
+  </si>
+  <si>
+    <t>4458767 </t>
+  </si>
+  <si>
+    <t>0.266 </t>
+  </si>
+  <si>
+    <t>BURMA14.TSP </t>
+  </si>
+  <si>
+    <t>3827 </t>
+  </si>
+  <si>
+    <t>387829 </t>
+  </si>
+  <si>
+    <t>0.151 </t>
+  </si>
+  <si>
+    <t>3327 </t>
+  </si>
+  <si>
+    <t>463434 </t>
+  </si>
+  <si>
+    <t>0.001 </t>
+  </si>
+  <si>
+    <t>3688 </t>
+  </si>
+  <si>
+    <t>408632 </t>
+  </si>
+  <si>
+    <t>0.109 </t>
+  </si>
+  <si>
+    <t>CH150.TSP </t>
+  </si>
+  <si>
+    <t>7713 </t>
+  </si>
+  <si>
+    <t>29034118 </t>
+  </si>
+  <si>
+    <t>0.089 </t>
+  </si>
+  <si>
+    <t>6805 </t>
+  </si>
+  <si>
+    <t>26529285 </t>
+  </si>
+  <si>
+    <t>0.042 </t>
+  </si>
+  <si>
+    <t>8635 </t>
+  </si>
+  <si>
+    <t>35831578 </t>
+  </si>
+  <si>
+    <t>0.322 </t>
+  </si>
+  <si>
+    <t>D493.TSP </t>
+  </si>
+  <si>
+    <t>40915 </t>
+  </si>
+  <si>
+    <t>2,92E+08 </t>
+  </si>
+  <si>
+    <t>0.166 </t>
+  </si>
+  <si>
+    <t>37294 </t>
+  </si>
+  <si>
+    <t>3,84E+08 </t>
+  </si>
+  <si>
+    <t>0.065 </t>
+  </si>
+  <si>
+    <t>44997 </t>
+  </si>
+  <si>
+    <t>3,58E+08 </t>
+  </si>
+  <si>
+    <t>0.285 </t>
+  </si>
+  <si>
+    <t>DSJ1000.TSP </t>
+  </si>
+  <si>
+    <t>22980721 </t>
+  </si>
+  <si>
+    <t>1,31E+09 </t>
+  </si>
+  <si>
+    <t>0.231 </t>
+  </si>
+  <si>
+    <t>20312741 </t>
+  </si>
+  <si>
+    <t>1,9E+09 </t>
+  </si>
+  <si>
+    <t>0.088 </t>
+  </si>
+  <si>
+    <t>25209654 </t>
+  </si>
+  <si>
+    <t>1,87E+09 </t>
+  </si>
+  <si>
+    <t>0.351 </t>
+  </si>
+  <si>
+    <t>EIL51.TSP </t>
+  </si>
+  <si>
+    <t>482 </t>
+  </si>
+  <si>
+    <t>5012627 </t>
+  </si>
+  <si>
+    <t>0.131 </t>
+  </si>
+  <si>
+    <t>437 </t>
+  </si>
+  <si>
+    <t>4807654 </t>
+  </si>
+  <si>
+    <t>0.025 </t>
+  </si>
+  <si>
+    <t>551 </t>
+  </si>
+  <si>
+    <t>3884370 </t>
+  </si>
+  <si>
+    <t>0.293 </t>
+  </si>
+  <si>
+    <t>GR202.TSP </t>
+  </si>
+  <si>
+    <t>48658 </t>
+  </si>
+  <si>
+    <t>54839418 </t>
+  </si>
+  <si>
+    <t>42946 </t>
+  </si>
+  <si>
+    <t>66179521 </t>
+  </si>
+  <si>
+    <t>0.046 </t>
+  </si>
+  <si>
+    <t>50170 </t>
+  </si>
+  <si>
+    <t>61025736 </t>
+  </si>
+  <si>
+    <t>0.249 </t>
+  </si>
+  <si>
+    <t>GR229.TSP </t>
+  </si>
+  <si>
+    <t>159399 </t>
+  </si>
+  <si>
+    <t>68557466 </t>
+  </si>
+  <si>
+    <t>0.184 </t>
+  </si>
+  <si>
+    <t>138925 </t>
+  </si>
+  <si>
+    <t>84351220 </t>
+  </si>
+  <si>
+    <t>0.032 </t>
+  </si>
+  <si>
+    <t>171922 </t>
+  </si>
+  <si>
+    <t>76135516 </t>
+  </si>
+  <si>
+    <t>0.277 </t>
+  </si>
+  <si>
+    <t>KROA100.TSP </t>
+  </si>
+  <si>
+    <t>24698 </t>
+  </si>
+  <si>
+    <t>12590144 </t>
+  </si>
+  <si>
+    <t>0.160 </t>
+  </si>
+  <si>
+    <t>21653 </t>
+  </si>
+  <si>
+    <t>15434171 </t>
+  </si>
+  <si>
+    <t>0.017 </t>
+  </si>
+  <si>
+    <t>28648 </t>
+  </si>
+  <si>
+    <t>14266972 </t>
+  </si>
+  <si>
+    <t>0.346 </t>
+  </si>
+  <si>
+    <t>KROD100.TSP </t>
+  </si>
+  <si>
+    <t>24852 </t>
+  </si>
+  <si>
+    <t>12320025 </t>
+  </si>
+  <si>
+    <t>0.167 </t>
+  </si>
+  <si>
+    <t>21848 </t>
+  </si>
+  <si>
+    <t>15303335 </t>
+  </si>
+  <si>
+    <t>0.026 </t>
+  </si>
+  <si>
+    <t>277742 </t>
+  </si>
+  <si>
+    <t>14845681 </t>
+  </si>
+  <si>
+    <t>0.302 </t>
+  </si>
+  <si>
+    <t>PCB442.TSP </t>
+  </si>
+  <si>
+    <t>50229 </t>
+  </si>
+  <si>
+    <t>2,5E+08 </t>
+  </si>
+  <si>
+    <t>55895 </t>
+  </si>
+  <si>
+    <t>3,41E+08 </t>
+  </si>
+  <si>
+    <t>0.100 </t>
+  </si>
+  <si>
+    <t>68996 </t>
+  </si>
+  <si>
+    <t>3,11E+08 </t>
+  </si>
+  <si>
+    <t>0.358 </t>
+  </si>
+  <si>
+    <t>ULYSSES16.TSP </t>
+  </si>
+  <si>
+    <t>7927 </t>
+  </si>
+  <si>
+    <t>453007 </t>
+  </si>
+  <si>
+    <t>0.155 </t>
+  </si>
+  <si>
+    <t>6894 </t>
+  </si>
+  <si>
+    <t>541466 </t>
+  </si>
+  <si>
+    <t>0.005 </t>
+  </si>
+  <si>
+    <t>7772 </t>
+  </si>
+  <si>
+    <t>484921 </t>
+  </si>
+  <si>
+    <t>0.133 </t>
+  </si>
+  <si>
+    <t>ULYSSES22.TSP </t>
+  </si>
+  <si>
+    <t>8158 </t>
+  </si>
+  <si>
+    <t>758886 </t>
+  </si>
+  <si>
+    <t>0.163 </t>
+  </si>
+  <si>
+    <t>8253 </t>
+  </si>
+  <si>
+    <t>925068 </t>
+  </si>
+  <si>
+    <t>0.169 </t>
+  </si>
+  <si>
+    <t>8210 </t>
+  </si>
+  <si>
+    <t>853912 </t>
+  </si>
+  <si>
+    <t>0.170 </t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,19 +471,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -166,7 +537,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,9 +569,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,6 +621,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,251 +814,494 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>3687741</v>
-      </c>
-      <c r="F3">
-        <v>4663976</v>
-      </c>
-      <c r="I3">
-        <v>4458767</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>387829</v>
-      </c>
-      <c r="F4">
-        <v>463434</v>
-      </c>
-      <c r="I4">
-        <v>408632</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>29034118</v>
-      </c>
-      <c r="F5">
-        <v>36539385</v>
-      </c>
-      <c r="I5">
-        <v>35831578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>291596285</v>
-      </c>
-      <c r="F6">
-        <v>383645640</v>
-      </c>
-      <c r="I6">
-        <v>358377472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>1308689692</v>
-      </c>
-      <c r="F7">
-        <v>1898139093</v>
-      </c>
-      <c r="I7">
-        <v>1872025443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
+      <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>5012627</v>
-      </c>
-      <c r="F8">
-        <v>4807654</v>
-      </c>
-      <c r="I8">
-        <v>3884370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
-        <v>54839418</v>
-      </c>
-      <c r="F9">
-        <v>66179521</v>
-      </c>
-      <c r="I9">
-        <v>61025736</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
-        <v>68557466</v>
-      </c>
-      <c r="F10">
-        <v>84351220</v>
-      </c>
-      <c r="I10">
-        <v>76135516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
-        <v>12590144</v>
-      </c>
-      <c r="F11">
-        <v>15434171</v>
-      </c>
-      <c r="I11">
-        <v>14266972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12">
-        <v>12320025</v>
-      </c>
-      <c r="F12">
-        <v>15303335</v>
-      </c>
-      <c r="I12">
-        <v>14845681</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13">
-        <v>250049046</v>
-      </c>
-      <c r="F13">
-        <v>341299158</v>
-      </c>
-      <c r="I13">
-        <v>310624927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14">
-        <v>453007</v>
-      </c>
-      <c r="F14">
-        <v>541466</v>
-      </c>
-      <c r="I14">
-        <v>484921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15">
-        <v>758886</v>
-      </c>
-      <c r="F15">
-        <v>925068</v>
-      </c>
-      <c r="I15">
-        <v>853912</v>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>